--- a/Crypto_Gainers.xlsx
+++ b/Crypto_Gainers.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,13 +29,26 @@
       <b val="1"/>
       <sz val="16"/>
     </font>
+    <font>
+      <i val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <color rgb="00008000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB266"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -50,9 +63,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -430,13 +445,13 @@
     <col customWidth="1" max="2" min="2" width="13"/>
     <col customWidth="1" max="3" min="3" width="14"/>
     <col customWidth="1" max="4" min="4" width="18"/>
-    <col customWidth="1" max="5" min="5" width="14"/>
+    <col customWidth="1" max="5" min="5" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Crypto Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -461,137 +476,137 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Radiclerad</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>HEdpAYhdp.ф</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$4.05</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>51.76%</t>
+          <t>$0.39</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>84.62%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$1.3813125988402737</t>
+          <t>$0.1766</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$2.668687401159726</t>
+          <t>$0.2087</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Zenonznn</t>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Radiclerad</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$2.2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>44.37%</t>
+          <t>$5.08</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>50.21%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$0.6761377017385883</t>
+          <t>$1.6981</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$1.5238622982614118</t>
+          <t>$3.3819</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Speraxspa</t>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Zenonznn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$0.01326382</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>40.86%</t>
+          <t>$2.20</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>44.37%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.0038475059292914955</t>
+          <t>$0.6761</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$0.009416314070708505</t>
+          <t>$1.5239</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Fieffief</t>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Conicconic-finance</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$0.109591</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>35.85%</t>
+          <t>$6.70</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>30.55%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.0289204074346706</t>
+          <t>$1.5679</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$0.0806705925653294</t>
+          <t>$5.1321</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Krypton DAOkrypton-dao</t>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Media Licensing Tokenmlt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$1.7</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>30.01%</t>
+          <t>$0.18</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>20.78%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.3924082762864396</t>
+          <t>$0.0304</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$1.3075917237135604</t>
+          <t>$0.1462</t>
         </is>
       </c>
     </row>
